--- a/жирик.xlsx
+++ b/жирик.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\rsppr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D550A-2914-449B-AC50-A8934D5CC13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A8244-1FA1-4E56-9548-B376CC1F1387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DEE2158-032E-4A0D-8025-FBABD456292F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DEE2158-032E-4A0D-8025-FBABD456292F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="196">
   <si>
     <t>Вопрос</t>
   </si>
@@ -283,6 +283,336 @@
   </si>
   <si>
     <t>Выборов 2024 года в США не будет, потому что самой Америки не будет</t>
+  </si>
+  <si>
+    <t>слышал</t>
+  </si>
+  <si>
+    <t>Вадимович вы знаете что такое мем?</t>
+  </si>
+  <si>
+    <t>вы стали победителем мемов совсем недавно вашего дня физкультурника вот такой выходил вот как вы реагируете на примерно такой мем где вы с полицейскими на митинге?</t>
+  </si>
+  <si>
+    <t>это все сделали они монтаж ну пущу по сути такси больше никакого повода не дам</t>
+  </si>
+  <si>
+    <t>почему не дадите?</t>
+  </si>
+  <si>
+    <t>мне надо тоже уже не поймут решать что я вот сам действительно ведь не все поймут этом мем</t>
+  </si>
+  <si>
+    <t>я точно вспоминаю как пару лет до того вы открывали купальный сезон серебряном бору и даже тогда с толпой помощников объясните мне почему и тогда и сейчас это выглядит как гей вечеринка?</t>
+  </si>
+  <si>
+    <t>ну потому что кому-то хочется это видеть в таком ключе мы делали только принцип один вот этот день что-то вроде физкультурника может роли 6 боре футбол волейбол притягивание каната сетка на стенку бассейн и бери бильярд настолько семиборье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и вы везде победили? </t>
+  </si>
+  <si>
+    <t>Да не, мы не опредиляли победителей</t>
+  </si>
+  <si>
+    <t>Кто эти мужики вокруг?</t>
+  </si>
+  <si>
+    <t>Это молодежная организация мощная, у нас она смая большая среди полит партий, в основном студенты первых курсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они из Москвы или иногордние? </t>
+  </si>
+  <si>
+    <t>В основном из Москвы</t>
+  </si>
+  <si>
+    <t>Есть ли геи во фракции ЛДПР?</t>
+  </si>
+  <si>
+    <t>Нету, как я вот знаю, нету</t>
+  </si>
+  <si>
+    <t>А если бы были, то как отнеслись?</t>
+  </si>
+  <si>
+    <t>Никак, это личное дело человека</t>
+  </si>
+  <si>
+    <t>Это нормально брать в гос думу депутата 95 года рождения?</t>
+  </si>
+  <si>
+    <t>мы берем исходя из нормы закона начиная с 21 года все граждане имеют право быть избранными депутатом государственной думы участницу выборы москве там 18 лет можно здесь смысл к в чем он должен он лучше знает что хочет молодежь его возраста у нас 33 миллиона молодежи от 15 до 29 лет пускай ними занимается он лучше знает что и надо я путаюсь там где instagram где бросят этом мы вот я узнал только вот когда он не принес вот это мемы сделали на возню перегонят надо счетчик попал в госдуму безусловно но уже натрите я изучил я посмотрела биография да он нигде не работал после высшего учебного заведения кроме попортил db может быть 0 от опыта наоборот самый большой опыт политической партии</t>
+  </si>
+  <si>
+    <t>Что мне нужно, чтобы избираться от ЛДПР?</t>
+  </si>
+  <si>
+    <t>Мы не ставим ограничения по возрасту, прнинцип простой - нужно работать в противной организации</t>
+  </si>
+  <si>
+    <t>Нужно ли мне будет открывать купальный сезон?</t>
+  </si>
+  <si>
+    <t>Нее</t>
+  </si>
+  <si>
+    <t>Если я вам бам миллиард, то возьмете в созыв?</t>
+  </si>
+  <si>
+    <t>Нужно быть в партии</t>
+  </si>
+  <si>
+    <t>Ну вот есть например партия Навального, она живет за свет взносов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ну и большевики жили за счет взносов, заграничных </t>
+  </si>
+  <si>
+    <t>Разве это плохо?</t>
+  </si>
+  <si>
+    <t>Плохо</t>
+  </si>
+  <si>
+    <t>Назовите три момента, когда вы были против Путина</t>
+  </si>
+  <si>
+    <t>Уведичение регионов, Цкраину надо было захватывать поностью в 14 году и малый бизнес</t>
+  </si>
+  <si>
+    <t>как вы риагируете на то, что вас называют марионеткой Путина?</t>
+  </si>
+  <si>
+    <t>Тк нет связи, ну он мне никогда не звонил и никогда не говорил мне что-то сделать</t>
+  </si>
+  <si>
+    <t>Вы еще удивляетесь, что вам взятки предлагают?</t>
+  </si>
+  <si>
+    <t>А мне и не предлагают, я этими людьми не управляю</t>
+  </si>
+  <si>
+    <t>Где живет Жириновский?</t>
+  </si>
+  <si>
+    <t>Западный регион</t>
+  </si>
+  <si>
+    <t>Зачем одному человеку столько площади?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все было куплено лет 20 назад для ЛДПР, оформлялось на одно лицо, чтоб меньше налогов платить </t>
+  </si>
+  <si>
+    <t>А на какие деньги это покупалось?</t>
+  </si>
+  <si>
+    <t>на подаренные деньги с дня рожденья, праздников</t>
+  </si>
+  <si>
+    <t>Сколько надо на новый штаб?</t>
+  </si>
+  <si>
+    <t>Нуу примерно 4 миллиарда</t>
+  </si>
+  <si>
+    <t>Почему Путин до сих пор не уходит? 17 лет, Крым вернул, что еще?</t>
+  </si>
+  <si>
+    <t>Надо дальше укреплять страну, еще ненадежно все, если придет какой-нибудь более мягкие или не очень опытный или податливый то могут опять начаться откаты назад вот нас донбасс вот он дымит надо до конца довести</t>
+  </si>
+  <si>
+    <t>А зачем нам такие территории?</t>
+  </si>
+  <si>
+    <t>В смысле? Леса, тундра, нефть, золото это все наше, кости наших предков там лежат</t>
+  </si>
+  <si>
+    <t>Ну вот верну ли бы мы границы СССР, что тогда? Экономика бы упала</t>
+  </si>
+  <si>
+    <t>Нет, нет! Вот если бы мы не взяли Крым, сейчас миллионы русских были бы избиты, убиты, и как беженцы пришли бы сюда, а там стоял бы НАТОвский военный флот</t>
+  </si>
+  <si>
+    <t>а вы серьезно считаете черное море важным стратегическим военным объектом?</t>
+  </si>
+  <si>
+    <t>Крым - это господство в черном море, если у нас есть Крым, то мы любой флот раздолбаем!</t>
+  </si>
+  <si>
+    <t>В 2017 году у всех есть ядерное оружие, вы считаете, что будут воевать флотом?</t>
+  </si>
+  <si>
+    <t>В том числе, у вас заблуждение.  Вы думаете две атомные бомбы бросили и война закончилась. Нет! Спева будут брошены сухопутные войска, ядерное оружие будет на последнем этапе. Когда они окружат Москву, тогда мы уже уничтожаем Америку!</t>
+  </si>
+  <si>
+    <t>Какой ваш любимый город?</t>
+  </si>
+  <si>
+    <t>Расскажите про компас?</t>
+  </si>
+  <si>
+    <t>Хотите ли вы стать презедентом?</t>
+  </si>
+  <si>
+    <t>Как вы оцениваете свою жизнь?</t>
+  </si>
+  <si>
+    <t>Какую партию вы больше всего ненавидите?</t>
+  </si>
+  <si>
+    <t>Что думаете на счет ковида?</t>
+  </si>
+  <si>
+    <t>Что самое лучшее в вашей партии?</t>
+  </si>
+  <si>
+    <t>Что думаете о презеденте?</t>
+  </si>
+  <si>
+    <t>Как бы вы описали Россию?</t>
+  </si>
+  <si>
+    <t>Что думаете на счет семьи?</t>
+  </si>
+  <si>
+    <t>Что думаете на счет коррупции?</t>
+  </si>
+  <si>
+    <t>Что на счет любви к родине?</t>
+  </si>
+  <si>
+    <t>Нужен ли знать другой язык?</t>
+  </si>
+  <si>
+    <t>Как бы вы описали свой режим?</t>
+  </si>
+  <si>
+    <t>Тихо!</t>
+  </si>
+  <si>
+    <t>Как бы себя описали?</t>
+  </si>
+  <si>
+    <t>Как относитесь к женщинам?</t>
+  </si>
+  <si>
+    <t>Вы плохо относитесь к женщинам</t>
+  </si>
+  <si>
+    <t>Как относитесь к матерям одиночкам</t>
+  </si>
+  <si>
+    <t>Откуда у вас Майбах?</t>
+  </si>
+  <si>
+    <t>Что думаете на счет нашей науки</t>
+  </si>
+  <si>
+    <t>Как относитесь к Кавказу?</t>
+  </si>
+  <si>
+    <t>Как относитесь к геям?</t>
+  </si>
+  <si>
+    <t>Что бы вы сказали своим ненавистникам?</t>
+  </si>
+  <si>
+    <t>В армии плохое отопление, что вы на это скажите?</t>
+  </si>
+  <si>
+    <t>Что не должен делать Патриот?</t>
+  </si>
+  <si>
+    <t>как бы вы описали себя?</t>
+  </si>
+  <si>
+    <t>Как бы ви переделали бы гос думу?</t>
+  </si>
+  <si>
+    <t>У вас смешная фамилия</t>
+  </si>
+  <si>
+    <t>Как вы относитесь к свободе слова?</t>
+  </si>
+  <si>
+    <t>Будете ли вы учавствовать в выборах?</t>
+  </si>
+  <si>
+    <t>Где бы вы хотели уснуть вечным сном?</t>
+  </si>
+  <si>
+    <t>Как относитесь к семье?</t>
+  </si>
+  <si>
+    <t>Как относитесь к порно?</t>
+  </si>
+  <si>
+    <t>У нас все песни про любовь</t>
+  </si>
+  <si>
+    <t>Что будете делать в старости?</t>
+  </si>
+  <si>
+    <t>У нас достаточно сильная внешняя политика, не так ли?</t>
+  </si>
+  <si>
+    <t>Как относитесь к крайностям режимов?</t>
+  </si>
+  <si>
+    <t>Как там в раю?</t>
+  </si>
+  <si>
+    <t>Что скажите на счет нашего образования?</t>
+  </si>
+  <si>
+    <t>Чего вы желаете для солдат?</t>
+  </si>
+  <si>
+    <t>Надо ли знать другие языки?</t>
+  </si>
+  <si>
+    <t>Как вы относитесь к презеденту?</t>
+  </si>
+  <si>
+    <t>как относитесь к коммунизму</t>
+  </si>
+  <si>
+    <t>Что думаете на счет грибо4ка в мавзолее?</t>
+  </si>
+  <si>
+    <t>Как относитесь к олигархам?</t>
+  </si>
+  <si>
+    <t>Что думаете о женщинах?</t>
+  </si>
+  <si>
+    <t>Что думаете о русских?</t>
+  </si>
+  <si>
+    <t>Что думаете о алкоголе?</t>
+  </si>
+  <si>
+    <t>Как относитесь к курению?</t>
+  </si>
+  <si>
+    <t>Нужен ли Крым НАТО?</t>
+  </si>
+  <si>
+    <t>что думаете на счет Украины?</t>
+  </si>
+  <si>
+    <t>Любят ли русских в мире?</t>
+  </si>
+  <si>
+    <t>Что думаете на счет войны?</t>
+  </si>
+  <si>
+    <t>Кто попедит в выборах в Америке в 24 году?</t>
+  </si>
+  <si>
+    <t>Что надо сделать с олигархами?</t>
   </si>
 </sst>
 </file>
@@ -331,13 +661,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -652,15 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D02FCD-BAF4-4AA4-95A1-66032D4E7D78}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.85546875" customWidth="1"/>
+    <col min="1" max="1" width="97.85546875" customWidth="1"/>
     <col min="2" max="2" width="162.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,169 +1006,225 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
@@ -929,201 +1318,507 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
